--- a/study_1/results/result_summary.xlsx
+++ b/study_1/results/result_summary.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -551,50 +551,50 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>SBERT_results</t>
+          <t>CLIP_results</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
         <v>254</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.516755861500474</v>
+        <v>0.4125982036653583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5042868809365251</v>
+        <v>0.3994462508536169</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.2440944881889764</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5118110236220472</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5984251968503937</v>
+        <v>0.4724409448818897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7007874015748031</v>
+        <v>0.5669291338582677</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7440944881889764</v>
+        <v>0.6181102362204725</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7992125984251969</v>
+        <v>0.65748031496063</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8267716535433071</v>
+        <v>0.6889763779527559</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8464566929133859</v>
+        <v>0.7244094488188977</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8700787401574803</v>
+        <v>0.7677165354330708</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9015748031496064</v>
+        <v>0.7874015748031497</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.7137795275590552</v>
+        <v>0.5913385826771653</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>0</v>
@@ -603,51 +603,13 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BLIP_results</t>
+          <t>SBERT_results</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>254</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4220813414461877</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4030546350624559</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2401574803149606</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4173228346456692</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5669291338582677</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6141732283464567</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6850393700787402</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.7440944881889764</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7677165354330708</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7952755905511811</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.8346456692913385</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0.6165354330708663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="inlineStr"/>
       <c r="P3" s="3" t="n">
         <v>0</v>
       </c>
@@ -655,105 +617,15 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>CLIP_results</t>
+          <t>BLIP_results</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>254</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4125982036653583</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3994462508536169</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2440944881889764</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3858267716535433</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4724409448818897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5669291338582677</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.6181102362204725</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.65748031496063</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6889763779527559</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7244094488188977</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.7677165354330708</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.7874015748031497</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0.5913385826771653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="inlineStr"/>
       <c r="P4" s="3" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>LUCENE_results</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>254</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3984626921634795</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3551453673933472</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3110236220472441</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4409448818897638</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4803149606299212</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5039370078740157</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5118110236220472</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5196850393700787</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5236220472440944</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5236220472440944</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5236220472440944</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.5236220472440944</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>0.4862204724409448</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -12010,7 +11882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12120,51 +11992,13 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>BLIP_results</t>
+          <t>CLIP_results</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>228</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.4571839170490478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4428822593342457</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2850877192982456</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5175438596491229</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5921052631578947</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6710526315789473</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7236842105263158</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7719298245614035</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.8114035087719298</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8201754385964912</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0.6473684210526316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="inlineStr"/>
       <c r="P2" s="3" t="n">
         <v>0</v>
       </c>
@@ -12176,47 +12010,9 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>228</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4151219714156429</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3847096117883701</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2587719298245614</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3903508771929824</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4561403508771929</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5570175438596491</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6008771929824561</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7280701754385965</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.8114035087719298</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0.5802631578947368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="inlineStr"/>
       <c r="P3" s="3" t="n">
         <v>0</v>
       </c>
@@ -12224,104 +12020,14 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>LUCENE_results</t>
+          <t>BLIP_results</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>228</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.410717982957405</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3839252644862511</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2850877192982456</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3859649122807017</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4649122807017544</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5219298245614035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5745614035087719</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6228070175438597</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.6973684210526315</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.7236842105263158</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0.5627192982456141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="inlineStr"/>
       <c r="P4" s="3" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>228</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3813862951218105</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3479970910443752</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2061403508771929</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.337719298245614</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4649122807017544</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5921052631578947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6403508771929824</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7149122807017544</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7412280701754386</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.7807017543859649</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>0.5671052631578947</v>
-      </c>
-      <c r="P5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12336,7 +12042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12491,53 +12197,53 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>CLIP_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4829092308114799</v>
+        <v>0.416025641025641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3529411764705882</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>0.6882352941176469</v>
+        <v>0.9</v>
       </c>
       <c r="T2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -12551,7 +12257,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -12570,49 +12276,49 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4641211729447023</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4696943171207877</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2941176470588235</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5882352941176471</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5882352941176471</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -12626,7 +12332,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -12641,53 +12347,53 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>SBERT_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.331508891435362</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3168017727507118</v>
+        <v>0.5600961538461539</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1764705882352941</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2352941176470588</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3529411764705882</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4117647058823529</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4705882352941176</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5882352941176471</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.5176470588235295</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -12701,12 +12407,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -12716,53 +12422,53 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>SBERT_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4424688516886584</v>
+        <v>0.75</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4037100034927773</v>
+        <v>0.4880608974358974</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4222222222222222</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5111111111111111</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5777777777777777</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6888888888888889</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>0.58</v>
+        <v>0.95</v>
       </c>
       <c r="T5" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -12776,12 +12482,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -12795,49 +12501,49 @@
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4361039988817766</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4146149001972075</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3111111111111111</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3555555555555555</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5111111111111111</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6222222222222222</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7111111111111111</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7555555555555555</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>0.591111111111111</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -12846,17 +12552,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Easy</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -12866,53 +12572,53 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>CLIP_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3553168817784817</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3074470710111469</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1777777777777777</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5111111111111111</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5777777777777777</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6444444444444445</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6888888888888889</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7111111111111111</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.7555555555555555</v>
+        <v>1</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.5488888888888889</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -12921,7 +12627,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Easy</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -12945,49 +12651,49 @@
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4532537544544041</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4248012910309585</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2888888888888888</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4222222222222222</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4888888888888889</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7555555555555555</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>0.8444444444444444</v>
+        <v>1</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>0.651111111111111</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -12996,17 +12702,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Easy</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -13016,53 +12722,53 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>SBERT_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3794122235788902</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3497149672496235</v>
+        <v>0.5600961538461539</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3555555555555555</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4888888888888889</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5111111111111111</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7111111111111111</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -13071,12 +12777,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Easy</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -13091,53 +12797,53 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>CLIP_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.298320043071505</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2991371861680599</v>
+        <v>0.5600961538461539</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2888888888888888</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3777777777777777</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4888888888888889</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5777777777777777</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6444444444444445</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.7555555555555555</v>
+        <v>1</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -13146,12 +12852,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Easy</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -13170,49 +12876,49 @@
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4198144164256696</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4193335974580494</v>
+        <v>0.5564369658119659</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2318840579710145</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4057971014492754</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4927536231884058</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5797101449275363</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6521739130434783</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7101449275362319</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8115942028985508</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="S11" s="3" t="n">
-        <v>0.627536231884058</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -13221,17 +12927,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Hard</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -13241,53 +12947,53 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>SBERT_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4072631944008755</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3725383442675009</v>
+        <v>0.416025641025641</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2463768115942029</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4057971014492754</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4347826086956521</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5072463768115942</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5362318840579711</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5797101449275363</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6376811594202898</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7101449275362319</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7536231884057971</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>0.8115942028985508</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3" t="n">
-        <v>0.5623188405797102</v>
+        <v>0.9</v>
       </c>
       <c r="T12" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -13296,12 +13002,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Hard</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -13316,53 +13022,53 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>CLIP_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.369252923560437</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3213868984265247</v>
+        <v>0.416025641025641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.217391304347826</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2898550724637681</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4347826086956521</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4927536231884058</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5217391304347826</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5942028985507246</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6086956521739131</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6811594202898551</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>0.7681159420289855</v>
+        <v>1</v>
       </c>
       <c r="S13" s="3" t="n">
-        <v>0.5347826086956522</v>
+        <v>0.9</v>
       </c>
       <c r="T13" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -13371,12 +13077,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Hard</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -13395,7626 +13101,51 @@
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5261457598773774</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5054731712938794</v>
+        <v>0.416025641025641</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3269230769230769</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5769230769230769</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6346153846153846</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8076923076923077</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>0.7346153846153847</v>
+        <v>0.9</v>
       </c>
       <c r="T14" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.460122106301256</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4369017675600132</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2884615384615384</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.6346153846153846</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.8269230769230769</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="S15" s="3" t="n">
-        <v>0.6461538461538461</v>
-      </c>
-      <c r="T15" t="n">
-        <v>52</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.4484827846345404</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4165748513428436</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4423076923076923</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.6346153846153846</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.7884615384615384</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="R16" s="3" t="n">
-        <v>0.8269230769230769</v>
-      </c>
-      <c r="S16" s="3" t="n">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="T16" t="n">
-        <v>52</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>149</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4549880207639168</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4420939060790053</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2885906040268456</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4429530201342282</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.4899328859060403</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.5704697986577181</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.6510067114093959</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.7046979865771812</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.7785234899328859</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.8187919463087249</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.8322147651006712</v>
-      </c>
-      <c r="R17" s="3" t="n">
-        <v>0.8523489932885906</v>
-      </c>
-      <c r="S17" s="3" t="n">
-        <v>0.6429530201342282</v>
-      </c>
-      <c r="T17" t="n">
-        <v>149</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>149</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.4265827751395341</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.397741977422911</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2818791946308724</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4093959731543624</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.4496644295302013</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.5167785234899329</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.5436241610738255</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.5838926174496645</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.6711409395973155</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.7114093959731543</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.7718120805369127</v>
-      </c>
-      <c r="R18" s="3" t="n">
-        <v>0.785234899328859</v>
-      </c>
-      <c r="S18" s="3" t="n">
-        <v>0.5724832214765101</v>
-      </c>
-      <c r="T18" t="n">
-        <v>149</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>149</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4207273639632138</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.3823234083277307</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.2550335570469799</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.3892617449664429</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.4966442953020134</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.5503355704697986</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.6040268456375839</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.6375838926174496</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.6711409395973155</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.7315436241610739</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.7651006711409396</v>
-      </c>
-      <c r="R19" s="3" t="n">
-        <v>0.8053691275167785</v>
-      </c>
-      <c r="S19" s="3" t="n">
-        <v>0.5906040268456375</v>
-      </c>
-      <c r="T19" t="n">
-        <v>149</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>79</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.4613255442197379</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4443691534485595</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2784810126582278</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4556962025316455</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.569620253164557</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.6329113924050633</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.7088607594936709</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.759493670886076</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.759493670886076</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.7974683544303798</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.7974683544303798</v>
-      </c>
-      <c r="R20" s="3" t="n">
-        <v>0.7974683544303798</v>
-      </c>
-      <c r="S20" s="3" t="n">
-        <v>0.6556962025316455</v>
-      </c>
-      <c r="T20" t="n">
-        <v>79</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>79</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3935060251515948</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.3601295804017045</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2151898734177215</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.3544303797468354</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.4683544303797468</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.5443037974683544</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.5822784810126582</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.6329113924050633</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.7088607594936709</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.759493670886076</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.8227848101265823</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>0.8607594936708861</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>0.5949367088607594</v>
-      </c>
-      <c r="T21" t="n">
-        <v>79</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>79</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.3071860513576449</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.2832550495858943</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.1139240506329113</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.240506329113924</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.4050632911392405</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.4810126582278481</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.569620253164557</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.6455696202531646</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.6582278481012658</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.6835443037974683</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.6962025316455697</v>
-      </c>
-      <c r="R22" s="3" t="n">
-        <v>0.7341772151898734</v>
-      </c>
-      <c r="S22" s="3" t="n">
-        <v>0.5227848101265823</v>
-      </c>
-      <c r="T22" t="n">
-        <v>79</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Synthetic Bug</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>93</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.4925395442868561</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5012600584745781</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.3118279569892473</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5053763440860215</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.6021505376344086</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.6344086021505376</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.7204301075268817</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.8172043010752689</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.8172043010752689</v>
-      </c>
-      <c r="R23" s="3" t="n">
-        <v>0.8172043010752689</v>
-      </c>
-      <c r="S23" s="3" t="n">
-        <v>0.6806451612903227</v>
-      </c>
-      <c r="T23" t="n">
-        <v>93</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Non-Synthetic Bug</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4328278182852244</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.4026664421486832</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2666666666666666</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.4592592592592592</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.562962962962963</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.6370370370370371</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.7481481481481481</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.8074074074074075</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="R24" s="3" t="n">
-        <v>0.8444444444444444</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>0.6244444444444444</v>
-      </c>
-      <c r="T24" t="n">
-        <v>135</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Non-Synthetic Bug</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4158040173132765</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.3602201006896011</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2666666666666666</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.4592592592592592</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.6074074074074074</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.6962962962962963</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.725925925925926</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="R25" s="3" t="n">
-        <v>0.7925925925925926</v>
-      </c>
-      <c r="S25" s="3" t="n">
-        <v>0.5762962962962963</v>
-      </c>
-      <c r="T25" t="n">
-        <v>135</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>Synthetic Bug</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>93</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4141319047900455</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.4202589020930349</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2473118279569892</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5591397849462365</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.5913978494623656</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.7311827956989247</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="R26" s="3" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="S26" s="3" t="n">
-        <v>0.5860215053763441</v>
-      </c>
-      <c r="T26" t="n">
-        <v>93</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Non-Synthetic Bug</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.4107699239095843</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.3646779245606259</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.237037037037037</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.3777777777777777</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.562962962962963</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.6370370370370371</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.6592592592592592</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.7703703703703704</v>
-      </c>
-      <c r="R27" s="3" t="n">
-        <v>0.8074074074074075</v>
-      </c>
-      <c r="S27" s="3" t="n">
-        <v>0.5896296296296296</v>
-      </c>
-      <c r="T27" t="n">
-        <v>135</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Synthetic Bug</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>93</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.3387326404298809</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.323782977875624</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.1612903225806451</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.2795698924731182</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.3978494623655914</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.4731182795698925</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.5806451612903226</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.6881720430107527</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.6989247311827957</v>
-      </c>
-      <c r="R28" s="3" t="n">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="S28" s="3" t="n">
-        <v>0.5344086021505376</v>
-      </c>
-      <c r="T28" t="n">
-        <v>93</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.6154761904761905</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.5738095238095238</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.1269841269841269</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2254930254930254</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.5833333333333333</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.5616666666666666</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.2480392156862744</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R33" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S33" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.1778044871794871</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.5773809523809523</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.5885714285714285</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" s="3" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="T35" t="n">
-        <v>4</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.3837535014005602</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.4109243697478991</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R36" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S36" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T36" t="n">
-        <v>4</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1572420634920635</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.2016487563362562</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>4</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.5838068181818181</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="S38" s="3" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="T38" t="n">
-        <v>8</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.4476190476190476</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.4033482142857142</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R39" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S39" s="3" t="n">
-        <v>0.6375</v>
-      </c>
-      <c r="T39" t="n">
-        <v>8</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.2771539802789802</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.2927045755170755</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R40" s="3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="S40" s="3" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="T40" t="n">
-        <v>8</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3381480762594893</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.2663726824678626</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R41" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S41" s="3" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.2018849206349206</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.2063356838054418</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S42" s="3" t="n">
-        <v>0.5125</v>
-      </c>
-      <c r="T42" t="n">
-        <v>8</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.1673428362573099</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.1597977771497508</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R43" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S43" s="3" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.4872558563115628</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.4250897503248404</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="R44" s="3" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="S44" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T44" t="n">
-        <v>16</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.3247519841269841</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.304841949045578</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="S45" s="3" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="T45" t="n">
-        <v>16</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.2222484082681451</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.2262511763334131</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R46" s="3" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="S46" s="3" t="n">
-        <v>0.36875</v>
-      </c>
-      <c r="T46" t="n">
-        <v>16</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.392815315919031</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.3485410844068801</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="R47" s="3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="S47" s="3" t="n">
-        <v>0.5464285714285714</v>
-      </c>
-      <c r="T47" t="n">
-        <v>28</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.3787485827664399</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.3657183997261924</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R48" s="3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="S48" s="3" t="n">
-        <v>0.5142857142857143</v>
-      </c>
-      <c r="T48" t="n">
-        <v>28</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.36471312884128</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.383249009858038</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="R49" s="3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="S49" s="3" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="T49" t="n">
-        <v>28</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.5052712168783597</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.4896356309651369</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="R50" s="3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="S50" s="3" t="n">
-        <v>0.6892857142857143</v>
-      </c>
-      <c r="T50" t="n">
-        <v>28</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.4382129774986917</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.3961108657689709</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="R51" s="3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="S51" s="3" t="n">
-        <v>0.6035714285714285</v>
-      </c>
-      <c r="T51" t="n">
-        <v>28</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.3226277545822605</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.2815505935905032</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="R52" s="3" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="S52" s="3" t="n">
-        <v>0.5107142857142858</v>
-      </c>
-      <c r="T52" t="n">
-        <v>28</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.4349921728598199</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.4364423204115874</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.2321428571428571</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4464285714285714</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.7678571428571429</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="R53" s="3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="S53" s="3" t="n">
-        <v>0.6482142857142857</v>
-      </c>
-      <c r="T53" t="n">
-        <v>56</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F54" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.4084807801325658</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.3809146327475816</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.2678571428571428</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.4821428571428571</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.5178571428571429</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.7321428571428571</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.7678571428571429</v>
-      </c>
-      <c r="R54" s="3" t="n">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="S54" s="3" t="n">
-        <v>0.5589285714285714</v>
-      </c>
-      <c r="T54" t="n">
-        <v>56</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.3577215352506457</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.3150458389986917</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.5892857142857143</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="R55" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S55" s="3" t="n">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="T55" t="n">
-        <v>56</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.5878787878787878</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.5731388114522152</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.4137931034482758</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="R56" s="3" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="S56" s="3" t="n">
-        <v>0.7655172413793101</v>
-      </c>
-      <c r="T56" t="n">
-        <v>29</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F57" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.5432371268578164</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.5166205135291407</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="R57" s="3" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="S57" s="3" t="n">
-        <v>0.7172413793103447</v>
-      </c>
-      <c r="T57" t="n">
-        <v>29</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F58" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.5386233019853709</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.4907793234758681</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="R58" s="3" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="S58" s="3" t="n">
-        <v>0.7413793103448275</v>
-      </c>
-      <c r="T58" t="n">
-        <v>29</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.5652777777777778</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.5101577566197559</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S59" s="3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="T59" t="n">
-        <v>12</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E60" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F60" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.499074074074074</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.4712567281369613</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R60" s="3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="S60" s="3" t="n">
-        <v>0.6749999999999999</v>
-      </c>
-      <c r="T60" t="n">
-        <v>12</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.3820415695415695</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.350618547897256</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.1666666666666666</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R61" s="3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="S61" s="3" t="n">
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="T61" t="n">
-        <v>12</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.5812638580931264</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.5547053319890565</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.3658536585365853</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7317073170731707</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.926829268292683</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.926829268292683</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.926829268292683</v>
-      </c>
-      <c r="R62" s="3" t="n">
-        <v>0.926829268292683</v>
-      </c>
-      <c r="S62" s="3" t="n">
-        <v>0.7975609756097561</v>
-      </c>
-      <c r="T62" t="n">
-        <v>41</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.5303113553113553</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.5033433080485029</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.3658536585365853</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.7317073170731707</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="R63" s="3" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="S63" s="3" t="n">
-        <v>0.7048780487804878</v>
-      </c>
-      <c r="T63" t="n">
-        <v>41</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F64" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.4927945022457218</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.4497566574528597</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.5853658536585366</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.6829268292682927</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="R64" s="3" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="S64" s="3" t="n">
-        <v>0.7048780487804878</v>
-      </c>
-      <c r="T64" t="n">
-        <v>41</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>117</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.4982649348074949</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.4815334211460117</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5213675213675214</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.5982905982905983</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.6837606837606838</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.7264957264957265</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.8376068376068376</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="R65" s="3" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="S65" s="3" t="n">
-        <v>0.6965811965811965</v>
-      </c>
-      <c r="T65" t="n">
-        <v>117</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F66" s="3" t="n">
-        <v>117</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.4311340961981987</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.4072851390933971</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.2735042735042735</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.3931623931623931</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.4700854700854701</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.5897435897435898</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.6410256410256411</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.7094017094017094</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.811965811965812</v>
-      </c>
-      <c r="R66" s="3" t="n">
-        <v>0.8547008547008547</v>
-      </c>
-      <c r="S66" s="3" t="n">
-        <v>0.6068376068376068</v>
-      </c>
-      <c r="T66" t="n">
-        <v>117</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="n">
-        <v>117</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.3874185393504556</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.353387232818976</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.2136752136752136</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.3504273504273504</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.452991452991453</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.5299145299145299</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.5982905982905983</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.6410256410256411</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="R67" s="3" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="S67" s="3" t="n">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="T67" t="n">
-        <v>117</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F68" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.5352040816326531</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.5277163108833277</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="R68" s="3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="S68" s="3" t="n">
-        <v>0.7214285714285713</v>
-      </c>
-      <c r="T68" t="n">
-        <v>14</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.475114171542743</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.4771196561375133</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="R69" s="3" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="S69" s="3" t="n">
-        <v>0.6142857142857142</v>
-      </c>
-      <c r="T69" t="n">
-        <v>14</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.3584988919810348</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.3423409281360685</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.2142857142857142</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="R70" s="3" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="S70" s="3" t="n">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="T70" t="n">
-        <v>14</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.2738095238095238</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R71" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S71" s="3" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="T71" t="n">
-        <v>3</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F72" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.4128205128205128</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.435042735042735</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R72" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S72" s="3" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="T72" t="n">
-        <v>3</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F73" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.2055555555555555</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.1976190476190475</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R73" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S73" s="3" t="n">
-        <v>0.4666666666666666</v>
-      </c>
-      <c r="T73" t="n">
-        <v>3</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.4829092308114799</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="R74" s="3" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="S74" s="3" t="n">
-        <v>0.6882352941176469</v>
-      </c>
-      <c r="T74" t="n">
-        <v>17</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F75" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.4641211729447023</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.4696943171207877</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="R75" s="3" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="S75" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T75" t="n">
-        <v>17</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F76" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.331508891435362</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.3168017727507118</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="R76" s="3" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="S76" s="3" t="n">
-        <v>0.5176470588235295</v>
-      </c>
-      <c r="T76" t="n">
-        <v>17</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F77" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.4903101425477737</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.437950402915052</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="R77" s="3" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="S77" s="3" t="n">
-        <v>0.6103448275862069</v>
-      </c>
-      <c r="T77" t="n">
-        <v>29</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F78" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.4376050832947384</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.3955545904088818</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.4137931034482758</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="R78" s="3" t="n">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="S78" s="3" t="n">
-        <v>0.5896551724137931</v>
-      </c>
-      <c r="T78" t="n">
-        <v>29</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F79" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.3879490735441792</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.3160438335778727</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="R79" s="3" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="S79" s="3" t="n">
-        <v>0.5620689655172415</v>
-      </c>
-      <c r="T79" t="n">
-        <v>29</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F80" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.4219279948446615</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.3883161206077872</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R80" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S80" s="3" t="n">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="T80" t="n">
-        <v>12</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F81" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.3853840603840603</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.4026918060609208</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R81" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S81" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T81" t="n">
-        <v>12</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F82" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.2669768784706865</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.2521791285626424</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R82" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S82" s="3" t="n">
-        <v>0.5166666666666667</v>
-      </c>
-      <c r="T82" t="n">
-        <v>12</v>
-      </c>
-      <c r="U82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.4702958554151554</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.4234232958982916</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.3414634146341463</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.4634146341463415</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.4878048780487805</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.5365853658536586</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.5853658536585366</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.6097560975609756</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0.7317073170731707</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-      <c r="R83" s="3" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-      <c r="S83" s="3" t="n">
-        <v>0.597560975609756</v>
-      </c>
-      <c r="T83" t="n">
-        <v>41</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E84" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F84" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.4223208814672229</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.3976435315753323</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3414634146341463</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.4390243902439024</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.6341463414634146</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.6829268292682927</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.7317073170731707</v>
-      </c>
-      <c r="R84" s="3" t="n">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="S84" s="3" t="n">
-        <v>0.5780487804878048</v>
-      </c>
-      <c r="T84" t="n">
-        <v>41</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E85" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F85" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.3525425774251082</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.2973517247929272</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.1707317073170731</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.5609756097560976</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.5853658536585366</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.6097560975609756</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.6341463414634146</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0.6829268292682927</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-      <c r="R85" s="3" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-      <c r="S85" s="3" t="n">
-        <v>0.548780487804878</v>
-      </c>
-      <c r="T85" t="n">
-        <v>41</v>
-      </c>
-      <c r="U85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F86" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.451266262473159</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.4360882474169271</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R86" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S86" s="3" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="T86" t="n">
-        <v>20</v>
-      </c>
-      <c r="U86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B87" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E87" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F87" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.4054082722832722</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.388188108528182</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R87" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S87" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T87" t="n">
-        <v>20</v>
-      </c>
-      <c r="U87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F88" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.3534213702963703</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.3445880732829262</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R88" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S88" s="3" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="T88" t="n">
-        <v>20</v>
-      </c>
-      <c r="U88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F89" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.4188169854836521</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.3439933523266856</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="R89" s="3" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="S89" s="3" t="n">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="T89" t="n">
-        <v>9</v>
-      </c>
-      <c r="U89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F90" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.3992063492063492</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1</v>
-      </c>
-      <c r="R90" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S90" s="3" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="T90" t="n">
-        <v>9</v>
-      </c>
-      <c r="U90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E91" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F91" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.3277103433966178</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="R91" s="3" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="S91" s="3" t="n">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="T91" t="n">
-        <v>9</v>
-      </c>
-      <c r="U91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F92" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.43449397411942</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.4246421410757132</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.4137931034482758</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="R92" s="3" t="n">
-        <v>0.9310344827586208</v>
-      </c>
-      <c r="S92" s="3" t="n">
-        <v>0.6793103448275861</v>
-      </c>
-      <c r="T92" t="n">
-        <v>29</v>
-      </c>
-      <c r="U92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F93" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.409569597069597</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.3744724945346142</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.4137931034482758</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.4137931034482758</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="R93" s="3" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="S93" s="3" t="n">
-        <v>0.5448275862068965</v>
-      </c>
-      <c r="T93" t="n">
-        <v>29</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F94" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.3402906002043933</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.3393501571113133</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.1379310344827586</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.4137931034482758</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="R94" s="3" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="S94" s="3" t="n">
-        <v>0.5413793103448276</v>
-      </c>
-      <c r="T94" t="n">
-        <v>29</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F95" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.4281792281792281</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.3469204098370765</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R95" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S95" s="3" t="n">
-        <v>0.5599999999999999</v>
-      </c>
-      <c r="T95" t="n">
-        <v>10</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F96" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.4239379084967319</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.3276584472172707</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R96" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S96" s="3" t="n">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="T96" t="n">
-        <v>10</v>
-      </c>
-      <c r="U96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E97" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F97" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.343501400560224</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.3235627719373849</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R97" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S97" s="3" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="T97" t="n">
-        <v>10</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E98" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F98" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.4022222222222222</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.4188481784435873</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R98" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S98" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T98" t="n">
-        <v>3</v>
-      </c>
-      <c r="U98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E99" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F99" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.3908730158730158</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.4192068540608888</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R99" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S99" s="3" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="T99" t="n">
-        <v>3</v>
-      </c>
-      <c r="U99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B100" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E100" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F100" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.301574074074074</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>1</v>
-      </c>
-      <c r="R100" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S100" s="3" t="n">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="T100" t="n">
-        <v>3</v>
-      </c>
-      <c r="U100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F101" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.4189265962795374</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.3487022313464206</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="R101" s="3" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="S101" s="3" t="n">
-        <v>0.5615384615384615</v>
-      </c>
-      <c r="T101" t="n">
-        <v>13</v>
-      </c>
-      <c r="U101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B102" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E102" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F102" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.4020182097105174</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.3364558708148451</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.1538461538461538</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="R102" s="3" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="S102" s="3" t="n">
-        <v>0.576923076923077</v>
-      </c>
-      <c r="T102" t="n">
-        <v>13</v>
-      </c>
-      <c r="U102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B103" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F103" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.354433311786253</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.345634483196655</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="R103" s="3" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="S103" s="3" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="T103" t="n">
-        <v>13</v>
-      </c>
-      <c r="U103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B104" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E104" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F104" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.2953552083986867</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.307059553436365</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R104" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="S104" s="3" t="n">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="T104" t="n">
-        <v>9</v>
-      </c>
-      <c r="U104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F105" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.2773901479783832</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.2789373661922681</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="R105" s="3" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="S105" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T105" t="n">
-        <v>9</v>
-      </c>
-      <c r="U105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F106" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.1932377239394783</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.1819302042986253</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="P106" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="R106" s="3" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="S106" s="3" t="n">
-        <v>0.4111111111111111</v>
-      </c>
-      <c r="T106" t="n">
-        <v>9</v>
-      </c>
-      <c r="U106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F107" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R107" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S107" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T107" t="n">
-        <v>2</v>
-      </c>
-      <c r="U107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F108" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.2291666666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.2291666666666666</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>1</v>
-      </c>
-      <c r="R108" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S108" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T108" t="n">
-        <v>2</v>
-      </c>
-      <c r="U108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F109" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>1</v>
-      </c>
-      <c r="R109" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S109" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T109" t="n">
-        <v>2</v>
-      </c>
-      <c r="U109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F110" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.3207055756186772</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.3219714814300375</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="R110" s="3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="S110" s="3" t="n">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="T110" t="n">
-        <v>11</v>
-      </c>
-      <c r="U110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E111" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F111" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.2833209280837739</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.2928972103873289</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="R111" s="3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="S111" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T111" t="n">
-        <v>11</v>
-      </c>
-      <c r="U111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F112" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.198507632718159</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.1892560257392793</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="R112" s="3" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="S112" s="3" t="n">
-        <v>0.4272727272727272</v>
-      </c>
-      <c r="T112" t="n">
-        <v>11</v>
-      </c>
-      <c r="U112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t>BLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F113" s="3" t="n">
-        <v>111</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.4138823037360901</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.4021418455326543</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.2612612612612612</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.3693693693693693</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.4324324324324324</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.4954954954954955</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.6126126126126126</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.7207207207207207</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0.7837837837837838</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.7927927927927928</v>
-      </c>
-      <c r="R113" s="3" t="n">
-        <v>0.8198198198198198</v>
-      </c>
-      <c r="S113" s="3" t="n">
-        <v>0.5954954954954954</v>
-      </c>
-      <c r="T113" t="n">
-        <v>111</v>
-      </c>
-      <c r="U113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>SBERT_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F114" s="3" t="n">
-        <v>111</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.3982443263745704</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.3609137857100984</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.2432432432432432</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.3873873873873873</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.4414414414414414</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.4954954954954955</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.5225225225225225</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.5585585585585585</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.6576576576576577</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0.6846846846846847</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.7657657657657657</v>
-      </c>
-      <c r="R114" s="3" t="n">
-        <v>0.7657657657657657</v>
-      </c>
-      <c r="S114" s="3" t="n">
-        <v>0.5522522522522523</v>
-      </c>
-      <c r="T114" t="n">
-        <v>111</v>
-      </c>
-      <c r="U114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t>CLIP_results_with_details.csv</t>
-        </is>
-      </c>
-      <c r="F115" s="3" t="n">
-        <v>111</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.3750279836375629</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.3423155902549311</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.1981981981981982</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.4774774774774775</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.5225225225225225</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.5855855855855856</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.6396396396396397</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0.7117117117117117</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.7387387387387387</v>
-      </c>
-      <c r="R115" s="3" t="n">
-        <v>0.7837837837837838</v>
-      </c>
-      <c r="S115" s="3" t="n">
-        <v>0.5648648648648649</v>
-      </c>
-      <c r="T115" t="n">
-        <v>111</v>
-      </c>
-      <c r="U115" t="n">
         <v>0</v>
       </c>
     </row>
